--- a/docs/formats/MISW-DA-Inception-CalculoVelocidad.xlsx
+++ b/docs/formats/MISW-DA-Inception-CalculoVelocidad.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gloria/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45CEF51-DCA9-43E3-8315-F431CC3059A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF4303B-894E-AE42-A51C-A856D3551F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="975" windowWidth="28455" windowHeight="13980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="1420" windowWidth="22920" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="3" r:id="rId1"/>
-    <sheet name="VelocidadEquipo" sheetId="1" r:id="rId2"/>
-    <sheet name="EstimaciónHUBase" sheetId="2" r:id="rId3"/>
+    <sheet name="EstimaciónHUBase" sheetId="2" r:id="rId2"/>
+    <sheet name="VelocidadEquipo" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Horas_HUBase">EstimaciónHUBase!$B$6</definedName>
-    <definedName name="PHU_HBUBase">EstimaciónHUBase!$B$5</definedName>
+    <definedName name="PHU_HUBase">EstimaciónHUBase!$B$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Equipo</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Tareas transversales al proyecto</t>
   </si>
   <si>
-    <t>Consignen la lista de actividades transversales que se deben realizar durantes el sprint y los tiempos estimados para las mismas. Una tarea transversal es una tarea que se debe realizar y no se hace para una historia particular. Un ejemplo de tarea transversal es la actividad de grooming de historias.</t>
-  </si>
-  <si>
     <t>Detalle de Velocidad del Sprint Equipo</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Titulo</t>
   </si>
   <si>
-    <t>Narrativa</t>
-  </si>
-  <si>
     <t>Puntos de Historia de Usuario asignados a la historia</t>
   </si>
   <si>
@@ -107,15 +101,6 @@
     <t>Estimación de Horas</t>
   </si>
   <si>
-    <t>1. Digite la información de la estimación de la historia base en la hoja EstimaciónHUBase</t>
-  </si>
-  <si>
-    <t>2. Digite la siguiente información en la hoja VelocidadEquipo</t>
-  </si>
-  <si>
-    <t>3. Verifique el resultado del cálculo de velocidad en la celda Velocidad del sprint.</t>
-  </si>
-  <si>
     <t>Número de semanas del sprint.</t>
   </si>
   <si>
@@ -123,6 +108,78 @@
   </si>
   <si>
     <t>Realice los siguientes pasos para calcular la velocidad del equipo:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Digite la información de la estimación de la historia base en la hoja EstimaciónHUBase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Digite la siguiente información en la hoja VelocidadEquipo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Verifique el resultado del cálculo de velocidad en la celda Velocidad del sprint.</t>
+    </r>
+  </si>
+  <si>
+    <t>Consignen la lista de actividades transversales que se deben realizar durante el sprint y los tiempos estimados para las mismas. Una tarea transversal es una tarea que se debe realizar y no se hace para una historia particular. Un ejemplo de tarea transversal es la actividad de refinamiento de historias.</t>
   </si>
 </sst>
 </file>
@@ -183,12 +240,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -202,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC665"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +386,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -349,22 +403,28 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -388,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,17 +457,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,6 +472,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBC665"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,20 +495,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2425</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1124465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1243C72E-5ECD-4C7E-A8B0-94FED2B4500B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E752AF33-CDE4-D14A-8018-37033319DFB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -455,21 +517,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7562850" cy="1755025"/>
+          <a:off x="0" y="25400"/>
+          <a:ext cx="7772400" cy="1099065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -486,22 +542,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>4885</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1511885</xdr:rowOff>
+      <xdr:rowOff>1099065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79852953-FCF6-4432-B7B7-20C33AD90914}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82D09BE-6CED-8F49-8231-7E81376F5FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -510,21 +566,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="0"/>
-          <a:ext cx="6515100" cy="1511885"/>
+          <a:off x="50800" y="0"/>
+          <a:ext cx="7777285" cy="1099065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -801,100 +851,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335CEFE0-6259-4B72-8C24-DE9834D7051F}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -903,141 +953,382 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08149AE9-764F-481E-9E21-CA9A9F2BF9E5}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22">
+        <f>SUM(C10:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="1.875" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:4" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <f>B6*B5*B4-(SUM(C7:C13))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="17" t="e">
-        <f>B15*PHU_HBUBase/Horas_HUBase</f>
+      <c r="C15" s="22"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="18" t="e">
+        <f>ROUNDDOWN(B15/(Horas_HUBase/PHU_HUBase),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1055,247 +1346,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08149AE9-764F-481E-9E21-CA9A9F2BF9E5}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="21">
-        <f>SUM(C10:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003971913424ECAE4E805D1BC6E6D9BC3C" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2ba7d757ff0ecd0ad482a876eccc7a5d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4d58fc9-363e-42d3-93a3-0f0e39d2b62b" xmlns:ns3="0e733887-b47c-44a5-a322-08148880beac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1f5668d3ea10092d56e455a4b03d3b4" ns2:_="" ns3:_="">
     <xsd:import namespace="a4d58fc9-363e-42d3-93a3-0f0e39d2b62b"/>
@@ -1506,22 +1572,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E1B388-BAD6-4BFE-80EC-AC0C7F4AA802}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798442E3-493D-49EE-9C69-501BF1ADA746}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB435DA9-82E7-4EA9-AC5D-283D86B38EC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1538,21 +1606,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798442E3-493D-49EE-9C69-501BF1ADA746}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E1B388-BAD6-4BFE-80EC-AC0C7F4AA802}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>